--- a/assignment1/cleaned_data.xlsx
+++ b/assignment1/cleaned_data.xlsx
@@ -12,22 +12,26 @@
     <sheet name="Likes" sheetId="3" r:id="rId3"/>
     <sheet name="Dislikes" sheetId="4" r:id="rId4"/>
     <sheet name="Rate the current price" sheetId="5" r:id="rId5"/>
-    <sheet name="Rate the characteristics" sheetId="6" r:id="rId6"/>
-    <sheet name="Rate the battery life" sheetId="7" r:id="rId7"/>
-    <sheet name="How much for rechargeable" sheetId="8" r:id="rId8"/>
-    <sheet name="Rate the look of the product" sheetId="9" r:id="rId9"/>
-    <sheet name="colors and patterns affect" sheetId="10" r:id="rId10"/>
-    <sheet name="pay for cool style" sheetId="11" r:id="rId11"/>
-    <sheet name="pay for these features" sheetId="12" r:id="rId12"/>
-    <sheet name="most like to have" sheetId="13" r:id="rId13"/>
-    <sheet name="All data" sheetId="14" r:id="rId14"/>
+    <sheet name="How much would you pay" sheetId="6" r:id="rId6"/>
+    <sheet name="Rate the characteristics" sheetId="7" r:id="rId7"/>
+    <sheet name="Rate the battery life" sheetId="8" r:id="rId8"/>
+    <sheet name="How much for rechargeable" sheetId="9" r:id="rId9"/>
+    <sheet name="Rate the look of the product" sheetId="10" r:id="rId10"/>
+    <sheet name="colors and patterns affect" sheetId="11" r:id="rId11"/>
+    <sheet name="pay for cool style" sheetId="12" r:id="rId12"/>
+    <sheet name="pay for these features" sheetId="13" r:id="rId13"/>
+    <sheet name="most like to have" sheetId="14" r:id="rId14"/>
+    <sheet name="All data" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="151">
+  <si>
+    <t>Gender</t>
+  </si>
   <si>
     <t>Respondent 1</t>
   </si>
@@ -98,6 +102,12 @@
     <t>Male</t>
   </si>
   <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>Oral-B rechargeable</t>
   </si>
   <si>
@@ -152,6 +162,18 @@
     <t>Colgate</t>
   </si>
   <si>
+    <t>Crest</t>
+  </si>
+  <si>
+    <t>Pepsodent</t>
+  </si>
+  <si>
+    <t>Rechargeable</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
     <t>electric powered</t>
   </si>
   <si>
@@ -341,18 +363,6 @@
     <t>ineffective according</t>
   </si>
   <si>
-    <t>increase color choice (non-girly)</t>
-  </si>
-  <si>
-    <t>have to use tool to replace brush</t>
-  </si>
-  <si>
-    <t>Heavier than manual one</t>
-  </si>
-  <si>
-    <t>to research</t>
-  </si>
-  <si>
     <t>Weight</t>
   </si>
   <si>
@@ -438,9 +448,6 @@
   </si>
   <si>
     <t>Pacer</t>
-  </si>
-  <si>
-    <t>Rechargeable</t>
   </si>
   <si>
     <t>Style</t>
@@ -838,176 +845,176 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1025,92 +1032,92 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>133</v>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>133</v>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>134</v>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>133</v>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>133</v>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>134</v>
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>133</v>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>133</v>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>133</v>
@@ -1118,82 +1125,82 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>133</v>
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>134</v>
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>134</v>
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>133</v>
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>133</v>
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>134</v>
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>134</v>
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>133</v>
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1211,175 +1218,175 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.5</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.5</v>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0.5</v>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1389,1106 +1396,182 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="B1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>2</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>5</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5">
+      <c r="B16">
         <v>0.5</v>
       </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
-      <c r="P6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>2</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.2</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.2</v>
-      </c>
-      <c r="G9">
-        <v>0.3</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0.2</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>0.5</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>2</v>
-      </c>
-      <c r="P12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>5</v>
-      </c>
-      <c r="P13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>5</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>5</v>
-      </c>
-      <c r="P14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>5</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>10</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>5</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>5</v>
-      </c>
-      <c r="P16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17">
-        <v>5</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>5</v>
-      </c>
-      <c r="N17">
-        <v>2</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18">
-        <v>5</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>2</v>
-      </c>
-      <c r="M18">
-        <v>2</v>
-      </c>
-      <c r="N18">
-        <v>2</v>
-      </c>
-      <c r="O18">
-        <v>5</v>
-      </c>
-      <c r="P18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>2</v>
-      </c>
-      <c r="N19">
-        <v>2</v>
-      </c>
-      <c r="O19">
-        <v>2</v>
-      </c>
-      <c r="P19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>5</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>2</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>2</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="I22">
-        <v>5</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>2</v>
-      </c>
-      <c r="N22">
-        <v>2</v>
-      </c>
-      <c r="O22">
-        <v>10</v>
-      </c>
-      <c r="P22">
         <v>2</v>
       </c>
     </row>
@@ -2507,143 +1590,395 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
       <c r="M3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
       <c r="G4">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
       </c>
       <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="D5">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
       </c>
       <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
         <v>1</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
       </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
       </c>
       <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>1</v>
       </c>
       <c r="P8">
@@ -2652,198 +1987,702 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0.3</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0.2</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
       </c>
       <c r="N10">
         <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
       </c>
       <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
         <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
         <v>1</v>
       </c>
       <c r="O15">
+        <v>10</v>
+      </c>
+      <c r="P15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
       </c>
       <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
       </c>
       <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
         <v>1</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
       <c r="J20">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
       </c>
       <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
       <c r="E21">
         <v>1</v>
       </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
       <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
       <c r="E22">
         <v>1</v>
       </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
       <c r="I22">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>10</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2852,6 +2691,360 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BT22"/>
   <sheetViews>
@@ -2860,7 +3053,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:72">
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1">
@@ -2869,104 +3062,104 @@
       <c r="D1" s="1">
         <v>4</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="F1" s="1">
+      <c r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="G1" s="1">
+      <c r="I1" s="1">
         <v>8</v>
       </c>
-      <c r="H1" s="1">
+      <c r="J1" s="1">
         <v>9</v>
       </c>
-      <c r="I1" s="1">
+      <c r="K1" s="1">
         <v>10</v>
       </c>
-      <c r="J1" s="1">
+      <c r="L1" s="1">
         <v>11</v>
       </c>
-      <c r="K1" s="1">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>13</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>14</v>
       </c>
-      <c r="N1" s="1">
-        <v>15</v>
-      </c>
       <c r="O1" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P1" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AL1" s="1">
         <v>47</v>
@@ -2984,120 +3177,129 @@
         <v>59</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AU1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="BF1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="BS1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:72">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" t="s">
-        <v>76</v>
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
       </c>
       <c r="M2" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+      <c r="N2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
       </c>
       <c r="P2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -3172,7 +3374,7 @@
         <v>2</v>
       </c>
       <c r="AO2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AP2">
         <v>5</v>
@@ -3234,28 +3436,34 @@
     </row>
     <row r="3" spans="1:72">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>76</v>
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
       </c>
       <c r="M3" t="s">
-        <v>91</v>
+        <v>83</v>
+      </c>
+      <c r="N3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
       </c>
       <c r="P3">
         <v>4</v>
@@ -3333,7 +3541,7 @@
         <v>2</v>
       </c>
       <c r="AO3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AP3">
         <v>0.5</v>
@@ -3395,40 +3603,43 @@
     </row>
     <row r="4" spans="1:72">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="J4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" t="s">
+        <v>82</v>
       </c>
       <c r="M4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="N4" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -3503,7 +3714,7 @@
         <v>2</v>
       </c>
       <c r="AO4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -3565,31 +3776,34 @@
     </row>
     <row r="5" spans="1:72">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" t="s">
-        <v>78</v>
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
       </c>
       <c r="M5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="N5" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -3664,7 +3878,7 @@
         <v>2</v>
       </c>
       <c r="AO5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AP5">
         <v>2</v>
@@ -3726,25 +3940,31 @@
     </row>
     <row r="6" spans="1:72">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" t="s">
-        <v>94</v>
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
       </c>
       <c r="N6" t="s">
-        <v>106</v>
+        <v>101</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -3819,7 +4039,7 @@
         <v>2</v>
       </c>
       <c r="AO6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AP6">
         <v>0</v>
@@ -3881,28 +4101,34 @@
     </row>
     <row r="7" spans="1:72">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" t="s">
-        <v>95</v>
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>102</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -3977,7 +4203,7 @@
         <v>2</v>
       </c>
       <c r="AO7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AP7">
         <v>1</v>
@@ -4039,22 +4265,31 @@
     </row>
     <row r="8" spans="1:72">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" t="s">
-        <v>96</v>
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
       </c>
       <c r="P8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -4129,7 +4364,7 @@
         <v>1</v>
       </c>
       <c r="AO8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AP8">
         <v>1</v>
@@ -4191,28 +4426,37 @@
     </row>
     <row r="9" spans="1:72">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
         <v>47</v>
       </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
-      <c r="M9" t="s">
-        <v>97</v>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>3.99</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -4287,7 +4531,7 @@
         <v>2</v>
       </c>
       <c r="AO9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AP9">
         <v>0</v>
@@ -4349,31 +4593,40 @@
     </row>
     <row r="10" spans="1:72">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" t="s">
-        <v>79</v>
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
       </c>
       <c r="M10" t="s">
-        <v>98</v>
+        <v>86</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>5.99</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -4445,10 +4698,10 @@
         <v>10.99</v>
       </c>
       <c r="AN10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AO10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AP10">
         <v>0.5</v>
@@ -4510,31 +4763,40 @@
     </row>
     <row r="11" spans="1:72">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" t="s">
-        <v>80</v>
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>71</v>
       </c>
       <c r="M11" t="s">
-        <v>99</v>
+        <v>87</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>4</v>
+        <v>6.99</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -4606,10 +4868,10 @@
         <v>7.99</v>
       </c>
       <c r="AN11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AO11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AP11">
         <v>1</v>
@@ -4671,34 +4933,43 @@
     </row>
     <row r="12" spans="1:72">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" t="s">
-        <v>81</v>
+        <v>57</v>
+      </c>
+      <c r="H12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" t="s">
+        <v>80</v>
       </c>
       <c r="M12" t="s">
-        <v>100</v>
+        <v>88</v>
+      </c>
+      <c r="N12" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
       </c>
       <c r="P12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -4770,10 +5041,10 @@
         <v>10.99</v>
       </c>
       <c r="AN12" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AP12">
         <v>0</v>
@@ -4835,31 +5106,40 @@
     </row>
     <row r="13" spans="1:72">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" t="s">
-        <v>82</v>
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" t="s">
+        <v>73</v>
       </c>
       <c r="M13" t="s">
-        <v>101</v>
+        <v>89</v>
+      </c>
+      <c r="N13" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>5.99</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -4931,10 +5211,10 @@
         <v>10</v>
       </c>
       <c r="AN13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AO13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AP13">
         <v>1</v>
@@ -4996,25 +5276,34 @@
     </row>
     <row r="14" spans="1:72">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" t="s">
-        <v>83</v>
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
       </c>
       <c r="P14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -5086,10 +5375,10 @@
         <v>9</v>
       </c>
       <c r="AN14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AO14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AP14">
         <v>2</v>
@@ -5151,25 +5440,34 @@
     </row>
     <row r="15" spans="1:72">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15" t="s">
-        <v>84</v>
+        <v>47</v>
+      </c>
+      <c r="G15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" t="s">
+        <v>91</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
       </c>
       <c r="P15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -5244,7 +5542,7 @@
         <v>2</v>
       </c>
       <c r="AO15" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AP15">
         <v>0</v>
@@ -5306,28 +5604,37 @@
     </row>
     <row r="16" spans="1:72">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
-      </c>
-      <c r="L16" t="s">
-        <v>85</v>
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" t="s">
+        <v>75</v>
       </c>
       <c r="M16" t="s">
-        <v>102</v>
+        <v>92</v>
+      </c>
+      <c r="N16" t="s">
+        <v>109</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
       </c>
       <c r="P16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -5402,7 +5709,7 @@
         <v>2.5</v>
       </c>
       <c r="AO16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AP16">
         <v>0.5</v>
@@ -5464,19 +5771,28 @@
     </row>
     <row r="17" spans="1:72">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
         <v>32</v>
       </c>
-      <c r="L17" t="s">
-        <v>71</v>
+      <c r="M17" t="s">
+        <v>78</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -5551,7 +5867,7 @@
         <v>2</v>
       </c>
       <c r="AO17" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AP17">
         <v>0</v>
@@ -5613,22 +5929,31 @@
     </row>
     <row r="18" spans="1:72">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
-      </c>
-      <c r="L18" t="s">
-        <v>86</v>
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" t="s">
+        <v>93</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -5703,7 +6028,7 @@
         <v>2</v>
       </c>
       <c r="AO18" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AP18">
         <v>2</v>
@@ -5765,25 +6090,34 @@
     </row>
     <row r="19" spans="1:72">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
-      </c>
-      <c r="L19" t="s">
-        <v>71</v>
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
       </c>
       <c r="P19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5858,7 +6192,7 @@
         <v>2</v>
       </c>
       <c r="AO19" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AP19">
         <v>5</v>
@@ -5920,31 +6254,37 @@
     </row>
     <row r="20" spans="1:72">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
-      </c>
-      <c r="L20" t="s">
-        <v>87</v>
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" t="s">
+        <v>77</v>
       </c>
       <c r="M20" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="N20" t="s">
-        <v>107</v>
+        <v>110</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -6019,7 +6359,7 @@
         <v>2</v>
       </c>
       <c r="AO20" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AP20">
         <v>0</v>
@@ -6081,22 +6421,31 @@
     </row>
     <row r="21" spans="1:72">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
-      </c>
-      <c r="L21" t="s">
-        <v>88</v>
+        <v>47</v>
+      </c>
+      <c r="H21" t="s">
+        <v>78</v>
+      </c>
+      <c r="M21" t="s">
+        <v>95</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
       </c>
       <c r="P21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -6171,7 +6520,7 @@
         <v>2</v>
       </c>
       <c r="AO21" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AP21">
         <v>0</v>
@@ -6233,22 +6582,31 @@
     </row>
     <row r="22" spans="1:72">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
-      </c>
-      <c r="L22" t="s">
-        <v>89</v>
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" t="s">
+        <v>96</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
       </c>
       <c r="P22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -6323,7 +6681,7 @@
         <v>3</v>
       </c>
       <c r="AO22" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AP22">
         <v>2</v>
@@ -6390,204 +6748,327 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1">
         <v>3</v>
       </c>
       <c r="C1" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -6625,224 +7106,224 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -6852,240 +7333,216 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:3">
       <c r="B1" s="1">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1">
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1">
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1">
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1">
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B17" t="s">
         <v>78</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>93</v>
       </c>
-      <c r="E5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>94</v>
       </c>
-      <c r="E6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>95</v>
       </c>
-      <c r="E7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -7108,7 +7565,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -7116,7 +7573,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -7124,7 +7581,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -7132,7 +7589,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7140,7 +7597,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -7148,7 +7605,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -7156,7 +7613,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -7164,7 +7621,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -7172,7 +7629,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -7180,7 +7637,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -7188,7 +7645,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -7196,7 +7653,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -7204,7 +7661,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -7212,7 +7669,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -7220,7 +7677,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -7228,7 +7685,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -7236,7 +7693,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -7244,7 +7701,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -7252,7 +7709,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -7260,7 +7717,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -7268,7 +7725,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -7280,6 +7737,192 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V22"/>
   <sheetViews>
@@ -7289,72 +7932,72 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -7422,7 +8065,7 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -7490,7 +8133,7 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7558,7 +8201,7 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7626,7 +8269,7 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -7694,7 +8337,7 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -7762,7 +8405,7 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -7830,7 +8473,7 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -7898,7 +8541,7 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -7966,7 +8609,7 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -8034,7 +8677,7 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -8102,7 +8745,7 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -8170,7 +8813,7 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -8238,7 +8881,7 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -8306,7 +8949,7 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -8374,7 +9017,7 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -8442,7 +9085,7 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -8510,7 +9153,7 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -8578,7 +9221,7 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -8646,7 +9289,7 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -8714,7 +9357,7 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -8778,192 +9421,6 @@
       </c>
       <c r="V22">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -8981,175 +9438,175 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>10.99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>6.99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>10.99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>20.99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>10.99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>10.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>10.99</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>20.99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>10.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>7.99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>10.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>10.99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>10.99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>10.99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>20.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>25.99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>10.99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>20.99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>10.99</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -9167,175 +9624,175 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>20.99</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>20.99</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>128</v>
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10.99</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>129</v>
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7.99</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>130</v>
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>10.99</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>131</v>
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>132</v>
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>2.5</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>20.99</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>20.99</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>10.99</v>
       </c>
     </row>
   </sheetData>
